--- a/ADCVD_REGRESSION/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF4EC3-808A-471C-84E7-5BA48E562C75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF8E7D-2FCB-4154-953F-CA4C9928E463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2304" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
